--- a/data/edited_data/mean-age-women-first-birth.xlsx
+++ b/data/edited_data/mean-age-women-first-birth.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3ba135bfd0da921d/Documents/12_Ironhack/projects/female-labour/data/edited_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3ba135bfd0da921d/Documents/12_Ironhack/projects/maternal-employment/data/edited_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{6C5071C4-DB77-4BD1-973E-418BC56C86B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BB846205-FDDE-4E73-A973-078534F598CC}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{6C5071C4-DB77-4BD1-973E-418BC56C86B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{423E85B1-BBC7-4F61-ACDA-C70C0A39DAD7}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{220DF714-D63A-4FA3-9423-2638DEE91187}"/>
   </bookViews>
@@ -194,7 +194,7 @@
     <t>country</t>
   </si>
   <si>
-    <t>mean_age_women_first_birth_2020</t>
+    <t>age_first_child</t>
   </si>
 </sst>
 </file>
@@ -204,7 +204,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -229,6 +229,12 @@
       <sz val="10"/>
       <name val="Arial Narrow"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FFA31515"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="4">
@@ -283,9 +289,6 @@
   </cellStyleXfs>
   <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -339,6 +342,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -355,6 +361,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -676,420 +686,420 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63256EB1-B939-4B95-A88B-6E1F5610D9BD}">
   <dimension ref="A1:B51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A34" sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" style="19" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" style="18" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="19" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="2">
         <v>29.6</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="4">
         <v>29.7</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="5">
         <v>29.2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="7">
         <v>28.5</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="6" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="5">
         <v>29.8</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11" s="7">
         <v>28.2</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="5">
         <v>29.5</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13" s="7">
         <v>28.9</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="5">
         <v>29.9</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="8">
+      <c r="B15" s="7">
         <v>30.7</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="5">
         <v>28.4</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="8">
+      <c r="B17" s="7">
         <v>28.7</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="5">
         <v>30.9</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="8">
+      <c r="B19" s="7">
         <v>27.68</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" s="14" t="s">
+      <c r="A20" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20" s="5">
         <v>31.4</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="8">
+      <c r="B21" s="7">
         <v>30.7</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" s="14" t="s">
+      <c r="A22" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22" s="5">
         <v>32.25</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" s="15" t="s">
+      <c r="A23" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="8">
+      <c r="B23" s="7">
         <v>27.3</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" s="14" t="s">
+      <c r="A24" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="6">
+      <c r="B24" s="5">
         <v>28.2</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" s="15" t="s">
+      <c r="A25" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="8">
+      <c r="B25" s="7">
         <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26" s="14" t="s">
+      <c r="A26" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27" s="15" t="s">
+      <c r="A27" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="8">
+      <c r="B27" s="7">
         <v>30.2</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A28" s="14" t="s">
+      <c r="A28" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="8">
+      <c r="B29" s="7">
         <v>29.8</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A30" s="14" t="s">
+      <c r="A30" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="6">
+      <c r="B30" s="5">
         <v>27.9</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A31" s="15" t="s">
+      <c r="A31" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="8">
+      <c r="B31" s="7">
         <v>30.2</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A32" s="14" t="s">
+      <c r="A32" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="6">
+      <c r="B32" s="5">
         <v>27.2</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A33" s="15" t="s">
+      <c r="A33" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="8">
+      <c r="B33" s="7">
         <v>29</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A34" s="14" t="s">
+      <c r="A34" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="6">
+      <c r="B34" s="5">
         <v>31.2</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A35" s="15" t="s">
+      <c r="A35" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="8">
+      <c r="B35" s="7">
         <v>29.7</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A36" s="14" t="s">
+      <c r="A36" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="B36" s="6">
+      <c r="B36" s="5">
         <v>31.1</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A37" s="15" t="s">
+      <c r="A37" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B37" s="8">
+      <c r="B37" s="7">
         <v>26.6</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A38" s="16" t="s">
+      <c r="A38" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="6">
+      <c r="B38" s="5">
         <v>29.1</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A39" s="17" t="s">
+      <c r="A39" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="B39" s="8">
+      <c r="B39" s="7">
         <v>27.1</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A40" s="14" t="s">
+      <c r="A40" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B40" s="10" t="s">
+      <c r="B40" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A41" s="15" t="s">
+      <c r="A41" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A42" s="14" t="s">
+      <c r="A42" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="B42" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A43" s="15" t="s">
+      <c r="A43" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="B43" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A44" s="14" t="s">
+      <c r="A44" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B44" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A45" s="15" t="s">
+      <c r="A45" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="B45" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A46" s="14" t="s">
+      <c r="A46" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="B46" s="3">
+      <c r="B46" s="2">
         <v>26.4</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A47" s="15" t="s">
+      <c r="A47" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="B47" s="9">
+      <c r="B47" s="8">
         <v>29</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A48" s="14" t="s">
+      <c r="A48" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="B48" s="3">
+      <c r="B48" s="2">
         <v>30</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A49" s="15" t="s">
+      <c r="A49" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="B49" s="9">
+      <c r="B49" s="8">
         <v>29.3</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A50" s="18" t="s">
+      <c r="A50" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="B50" s="11">
+      <c r="B50" s="10">
         <v>27.1</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A51" s="13" t="s">
+      <c r="A51" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="B51" s="12">
+      <c r="B51" s="11">
         <f t="shared" ref="B51" si="0">AVERAGE(B3,B4,B7,B10,B11,B12,B13,B15,B16,B18,B23,B24,B27,B30,B31,B32,B33,B34,B35,B46,B47,B48,B50)</f>
         <v>29.008695652173909</v>
       </c>
